--- a/小精灵配置文件/小精灵需求/小精灵宠物名单.xlsx
+++ b/小精灵配置文件/小精灵需求/小精灵宠物名单.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1881,7 +1881,7 @@
   <dimension ref="A1:C494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
